--- a/data/trans_dic/P36$huevo-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36$huevo-Provincia-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.003477644914832754</v>
+        <v>0.003466986972132509</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.006459772125045675</v>
+        <v>0.006334893421397023</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01837434283301445</v>
+        <v>0.0186980093311424</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.004008304929070351</v>
+        <v>0.003688811845048713</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.006228821225518748</v>
+        <v>0.006123702200928307</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.003551357577817546</v>
+        <v>0.00354510693294072</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.007372387661913287</v>
+        <v>0.00753170448337123</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01515061831019812</v>
+        <v>0.01604318404474427</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0347516222195146</v>
+        <v>0.03137006202910529</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04038588941367487</v>
+        <v>0.03979453580205568</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06179384994576975</v>
+        <v>0.06461732002435394</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0211221348774386</v>
+        <v>0.01935688101736818</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03695676045317416</v>
+        <v>0.03728218963419305</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04021144929054344</v>
+        <v>0.04190592849406034</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01969194272727702</v>
+        <v>0.01999161872077317</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03017946302691811</v>
+        <v>0.0300306820510303</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04365832851883444</v>
+        <v>0.04387824298863326</v>
       </c>
     </row>
     <row r="7">
@@ -784,26 +784,26 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.006219329591097502</v>
+        <v>0.008024462989911699</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01542218151363654</v>
+        <v>0.0157254620864708</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.00184664169857745</v>
+        <v>0.001842002216127679</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.009368589142489191</v>
+        <v>0.009607795757442755</v>
       </c>
       <c r="H8" s="5" t="inlineStr"/>
       <c r="I8" s="5" t="n">
-        <v>0.005809329587998782</v>
+        <v>0.005870563141796961</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01621931543203561</v>
+        <v>0.01664517962329535</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
@@ -817,29 +817,29 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03523025750973475</v>
+        <v>0.03587360933710166</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04459382599786954</v>
+        <v>0.04644708448482517</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0102577783523594</v>
+        <v>0.01128240931517215</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01609433800228481</v>
+        <v>0.0160729540189216</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0415536959126791</v>
+        <v>0.04357085007492147</v>
       </c>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.02177645310947333</v>
+        <v>0.02181253695483749</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03749068192558833</v>
+        <v>0.03757189846494051</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.005958764995091377</v>
+        <v>0.005960331448860929</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01235248102591658</v>
+        <v>0.01239797800400933</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06106368540671309</v>
+        <v>0.06280512816059983</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02962066530120629</v>
+        <v>0.0271524209316303</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.009332281510931512</v>
+        <v>0.00889252472592853</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.008588788742437369</v>
+        <v>0.008666731673874139</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01343952488690368</v>
+        <v>0.01343032525407572</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01375994612192091</v>
+        <v>0.0135630340089876</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03854598944881007</v>
+        <v>0.03895716619796168</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02538971458507045</v>
+        <v>0.025374153056979</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04829146277163987</v>
+        <v>0.04726707423971038</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1241591755972634</v>
+        <v>0.1228964680889233</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07449622299988738</v>
+        <v>0.07307760967111192</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04252363562554752</v>
+        <v>0.04055935301112665</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04012723301845664</v>
+        <v>0.04317314735369573</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05144371004840629</v>
+        <v>0.05263476989176508</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03776543515842241</v>
+        <v>0.03695528539613283</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07365118027978822</v>
+        <v>0.0742208861396355</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05393363268127486</v>
+        <v>0.05454488312559952</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01904919509104451</v>
+        <v>0.01879996003512154</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03777243544240641</v>
+        <v>0.03539894214203763</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08756932846904424</v>
+        <v>0.0868162435288785</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.002483343910691677</v>
+        <v>0.002507167412216715</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04952089587836677</v>
+        <v>0.04931013796524902</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01145513737440256</v>
+        <v>0.0112876170058205</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0229505211266472</v>
+        <v>0.02288425213306648</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07462719474478736</v>
+        <v>0.07612899407660217</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05722044847658619</v>
+        <v>0.05781294931435426</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08748454549302392</v>
+        <v>0.08559245081274783</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1537794251662759</v>
+        <v>0.1561877775884536</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01626650715617732</v>
+        <v>0.01711551821060516</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02226865174597587</v>
+        <v>0.02451558594400227</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1053521837189918</v>
+        <v>0.1026184457594204</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03093128266903048</v>
+        <v>0.03005333681041036</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04925098203736347</v>
+        <v>0.04866245935530499</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1205057670145615</v>
+        <v>0.1206494745856288</v>
       </c>
     </row>
     <row r="16">
@@ -1107,29 +1107,29 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01406091368007461</v>
+        <v>0.01581851812257566</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02191508979545044</v>
+        <v>0.0182475148353318</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="n">
-        <v>0.004030629155726</v>
+        <v>0.004003567112922417</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01945677885283667</v>
+        <v>0.0205556408141109</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.008772737991674074</v>
+        <v>0.008600933173328716</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.004098940339653682</v>
+        <v>0.004594274992828132</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02589821317625642</v>
+        <v>0.02337405075884173</v>
       </c>
     </row>
     <row r="18">
@@ -1140,29 +1140,29 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07546149187308814</v>
+        <v>0.07941743473439862</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04056376463914917</v>
+        <v>0.03973796942440937</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0730451229144987</v>
+        <v>0.07543981708985141</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>0.03609588287854058</v>
+        <v>0.03222711584462942</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07305282431914087</v>
+        <v>0.07164525540584733</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0413754236190859</v>
+        <v>0.0393528879313395</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02682755698853757</v>
+        <v>0.02706102550051559</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06176114153088245</v>
+        <v>0.06008103980194234</v>
       </c>
     </row>
     <row r="19">
@@ -1212,31 +1212,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01904250798565128</v>
+        <v>0.02204632540967556</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02874346591034539</v>
+        <v>0.03218006407487561</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02305931346769377</v>
+        <v>0.02317104239152782</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01043205052674574</v>
+        <v>0.007346475558574908</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.00351659259382808</v>
+        <v>0.003488409855591157</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.003133606405590042</v>
+        <v>0.003200403576997121</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0183743631068621</v>
+        <v>0.0181173095469012</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02098312354065914</v>
+        <v>0.01953278096042985</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01486345858253836</v>
+        <v>0.0131523261709605</v>
       </c>
     </row>
     <row r="21">
@@ -1247,31 +1247,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0686545699685478</v>
+        <v>0.0674053757870057</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08937670621605394</v>
+        <v>0.09552067880192887</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.07264357409672909</v>
+        <v>0.07362715664891416</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04570459682311032</v>
+        <v>0.04347783431190316</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03481774375705634</v>
+        <v>0.03548389179744143</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.02697217931297337</v>
+        <v>0.02525150501650647</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04783868841719318</v>
+        <v>0.04594430933597218</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.05341683546278577</v>
+        <v>0.05224936659729662</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04502240673748396</v>
+        <v>0.04182745852686997</v>
       </c>
     </row>
     <row r="22">
@@ -1321,31 +1321,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03459494476848005</v>
+        <v>0.03565439865576118</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05058743508122949</v>
+        <v>0.05041593353260986</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1000903969061209</v>
+        <v>0.09483960090392377</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03331778440261378</v>
+        <v>0.03280866756968996</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04124479589698624</v>
+        <v>0.04375026735009752</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06364017726290185</v>
+        <v>0.063568991475746</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03831797822225655</v>
+        <v>0.03906653206633411</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.051036524055865</v>
+        <v>0.05193172447104491</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.08839706265407919</v>
+        <v>0.08717573356454113</v>
       </c>
     </row>
     <row r="24">
@@ -1356,31 +1356,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07513785449979951</v>
+        <v>0.07510541751248551</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09000485770059928</v>
+        <v>0.08947380036308571</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1523666710293594</v>
+        <v>0.1491816682355267</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.07015038556152825</v>
+        <v>0.06844643998087173</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07882714486789429</v>
+        <v>0.08452489955561317</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1062364514960792</v>
+        <v>0.1054245990813833</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.06448605290349528</v>
+        <v>0.06411661874492001</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.07751333991421305</v>
+        <v>0.08122401755891839</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1197979332718539</v>
+        <v>0.1192479979187373</v>
       </c>
     </row>
     <row r="25">
@@ -1430,31 +1430,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.03214471685712113</v>
+        <v>0.03283442245669187</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.006194794501468436</v>
+        <v>0.005507341902149675</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.08486148224372213</v>
+        <v>0.08323880350668036</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01706858123743526</v>
+        <v>0.01659610770177673</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.00468105135817088</v>
+        <v>0.004667348657327408</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1028941979208612</v>
+        <v>0.1015309891096713</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.02682955839322677</v>
+        <v>0.02768560177501433</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.005858464473757909</v>
+        <v>0.006335210204614731</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.09902585257856342</v>
+        <v>0.1002862804331966</v>
       </c>
     </row>
     <row r="27">
@@ -1465,31 +1465,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.06484510568527531</v>
+        <v>0.06535966403980004</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02242820619751652</v>
+        <v>0.02166020616146675</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1281331675827393</v>
+        <v>0.1277143573277826</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.04107145848367313</v>
+        <v>0.04060703867039907</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.01958307518073961</v>
+        <v>0.02112821434647723</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1506530417096524</v>
+        <v>0.1495965548355297</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.04636543501693937</v>
+        <v>0.04810801459734548</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.01763549916306439</v>
+        <v>0.01702314195995146</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1316751965516945</v>
+        <v>0.1322041943480784</v>
       </c>
     </row>
     <row r="28">
@@ -1539,31 +1539,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0295233840722469</v>
+        <v>0.02952055424123693</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.0355679479001493</v>
+        <v>0.03542710290484526</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.06561623694910278</v>
+        <v>0.06538820627646924</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.01624361351810361</v>
+        <v>0.0164447883492774</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.01857031680574116</v>
+        <v>0.01811037941923042</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.05318298841934026</v>
+        <v>0.05239385272448546</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.02456034988470497</v>
+        <v>0.02436705490352887</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.02863162788655244</v>
+        <v>0.02864901667805584</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.06119145167640339</v>
+        <v>0.06164558326960908</v>
       </c>
     </row>
     <row r="30">
@@ -1574,31 +1574,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.04357757609869251</v>
+        <v>0.04363749292203995</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.04953665722946386</v>
+        <v>0.04887399689395202</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.0835366198257696</v>
+        <v>0.08341701402078183</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.02635154569324247</v>
+        <v>0.02674437373605118</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.02913840246379234</v>
+        <v>0.02948645215166067</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.06940504234593244</v>
+        <v>0.06859208226918102</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.03297139635314197</v>
+        <v>0.03282689570591636</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.03717403759228957</v>
+        <v>0.03710211757212264</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.07354235974879006</v>
+        <v>0.07426840418842245</v>
       </c>
     </row>
     <row r="31">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1904</v>
+        <v>1867</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5398</v>
+        <v>5493</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1148</v>
+        <v>1056</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1798</v>
+        <v>1768</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1886</v>
+        <v>1882</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4284</v>
+        <v>4376</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>8825</v>
+        <v>9345</v>
       </c>
     </row>
     <row r="7">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9426</v>
+        <v>8509</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11903</v>
+        <v>11729</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>18153</v>
+        <v>18982</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>5487</v>
+        <v>5028</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10581</v>
+        <v>10674</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>11609</v>
+        <v>12098</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>10457</v>
+        <v>10616</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>17536</v>
+        <v>17449</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>25429</v>
+        <v>25557</v>
       </c>
     </row>
     <row r="8">
@@ -1975,26 +1975,26 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3060</v>
+        <v>3948</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7780</v>
+        <v>7933</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4888</v>
+        <v>5013</v>
       </c>
       <c r="H10" s="6" t="inlineStr"/>
       <c r="I10" s="6" t="n">
-        <v>5786</v>
+        <v>5847</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>16645</v>
+        <v>17082</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
@@ -2008,29 +2008,29 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>17334</v>
+        <v>17651</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22497</v>
+        <v>23432</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5133</v>
+        <v>5646</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>8111</v>
+        <v>8100</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>21680</v>
+        <v>22733</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>21689</v>
+        <v>21725</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>38474</v>
+        <v>38557</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>6099</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="12">
@@ -2115,31 +2115,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3939</v>
+        <v>3953</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>19732</v>
+        <v>20294</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9436</v>
+        <v>8650</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3130</v>
+        <v>2983</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2929</v>
+        <v>2956</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4520</v>
+        <v>4517</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>9003</v>
+        <v>8874</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>25600</v>
+        <v>25873</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>16627</v>
+        <v>16617</v>
       </c>
     </row>
     <row r="15">
@@ -2150,31 +2150,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15398</v>
+        <v>15071</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>40120</v>
+        <v>39712</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>23732</v>
+        <v>23280</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>14263</v>
+        <v>13604</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>13684</v>
+        <v>14723</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>17301</v>
+        <v>17702</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>24708</v>
+        <v>24178</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>48915</v>
+        <v>49294</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>35320</v>
+        <v>35720</v>
       </c>
     </row>
     <row r="16">
@@ -2259,31 +2259,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6814</v>
+        <v>6725</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>14085</v>
+        <v>13200</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>32397</v>
+        <v>32119</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>966</v>
+        <v>975</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>19179</v>
+        <v>19097</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>8352</v>
+        <v>8230</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>17485</v>
+        <v>17434</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>56511</v>
+        <v>57648</v>
       </c>
     </row>
     <row r="19">
@@ -2294,31 +2294,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>20467</v>
+        <v>20679</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>32623</v>
+        <v>31917</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>56893</v>
+        <v>57784</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>6042</v>
+        <v>6358</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>8661</v>
+        <v>9535</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>40801</v>
+        <v>39742</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>22553</v>
+        <v>21913</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>37522</v>
+        <v>37073</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>91253</v>
+        <v>91361</v>
       </c>
     </row>
     <row r="20">
@@ -2403,29 +2403,29 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2846</v>
+        <v>3202</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4629</v>
+        <v>3854</v>
       </c>
       <c r="F22" s="6" t="inlineStr"/>
       <c r="G22" s="6" t="n">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>4253</v>
+        <v>4493</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>3589</v>
+        <v>3518</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1772</v>
+        <v>1986</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>11131</v>
+        <v>10046</v>
       </c>
     </row>
     <row r="23">
@@ -2436,29 +2436,29 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>15274</v>
+        <v>16075</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8625</v>
+        <v>8449</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>15429</v>
+        <v>15934</v>
       </c>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="n">
-        <v>7926</v>
+        <v>7077</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>15968</v>
+        <v>15661</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>16926</v>
+        <v>16098</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>11595</v>
+        <v>11696</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>26545</v>
+        <v>25823</v>
       </c>
     </row>
     <row r="24">
@@ -2543,31 +2543,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>5157</v>
+        <v>5970</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>7875</v>
+        <v>8817</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>6067</v>
+        <v>6097</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2902</v>
+        <v>2043</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>852</v>
+        <v>870</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>10087</v>
+        <v>9946</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>11603</v>
+        <v>10801</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>7953</v>
+        <v>7037</v>
       </c>
     </row>
     <row r="27">
@@ -2578,31 +2578,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>18592</v>
+        <v>18254</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>24488</v>
+        <v>26171</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>19114</v>
+        <v>19373</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>12712</v>
+        <v>12093</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>9714</v>
+        <v>9900</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>7334</v>
+        <v>6866</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>26261</v>
+        <v>25221</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>29538</v>
+        <v>28893</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>24089</v>
+        <v>22380</v>
       </c>
     </row>
     <row r="28">
@@ -2687,31 +2687,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>21206</v>
+        <v>21856</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>33529</v>
+        <v>33415</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>65536</v>
+        <v>62098</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>21199</v>
+        <v>20875</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>28618</v>
+        <v>30356</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>43863</v>
+        <v>43814</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>47869</v>
+        <v>48804</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>69238</v>
+        <v>70453</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>118806</v>
+        <v>117165</v>
       </c>
     </row>
     <row r="31">
@@ -2722,31 +2722,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>46059</v>
+        <v>46039</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>59654</v>
+        <v>59302</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>99766</v>
+        <v>97680</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>44634</v>
+        <v>43550</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>54694</v>
+        <v>58648</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>73222</v>
+        <v>72662</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>80560</v>
+        <v>80098</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>105158</v>
+        <v>110192</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>161010</v>
+        <v>160270</v>
       </c>
     </row>
     <row r="32">
@@ -2831,31 +2831,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>23909</v>
+        <v>24422</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>4809</v>
+        <v>4275</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>66072</v>
+        <v>64808</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>13373</v>
+        <v>13003</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>3847</v>
+        <v>3835</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>85008</v>
+        <v>83882</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>40977</v>
+        <v>42284</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>9362</v>
+        <v>10123</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>158912</v>
+        <v>160934</v>
       </c>
     </row>
     <row r="35">
@@ -2866,31 +2866,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>48231</v>
+        <v>48614</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>17410</v>
+        <v>16813</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>99762</v>
+        <v>99436</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>32180</v>
+        <v>31816</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>16092</v>
+        <v>17362</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>124465</v>
+        <v>123592</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>70814</v>
+        <v>73476</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>28181</v>
+        <v>27202</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>211306</v>
+        <v>212155</v>
       </c>
     </row>
     <row r="36">
@@ -2975,31 +2975,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>96536</v>
+        <v>96527</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>121674</v>
+        <v>121192</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>222464</v>
+        <v>221691</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>54825</v>
+        <v>55504</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>65965</v>
+        <v>64331</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>188336</v>
+        <v>185542</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>163203</v>
+        <v>161919</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>199650</v>
+        <v>199771</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>424159</v>
+        <v>427307</v>
       </c>
     </row>
     <row r="39">
@@ -3010,31 +3010,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>142491</v>
+        <v>142687</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>169459</v>
+        <v>167192</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>283221</v>
+        <v>282815</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>88941</v>
+        <v>90267</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>103505</v>
+        <v>104741</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>245783</v>
+        <v>242904</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>219095</v>
+        <v>218134</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>259217</v>
+        <v>258715</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>509771</v>
+        <v>514804</v>
       </c>
     </row>
     <row r="40">
